--- a/modelo6/origen/ficheros/salida/FICHA_RESUMEN_PLACO23_217350.xlsx
+++ b/modelo6/origen/ficheros/salida/FICHA_RESUMEN_PLACO23_217350.xlsx
@@ -1979,7 +1979,9 @@
       <c r="D20" s="145" t="n"/>
       <c r="E20" s="145" t="n"/>
       <c r="F20" s="146" t="n"/>
-      <c r="G20" s="42" t="n"/>
+      <c r="G20" s="42" t="b">
+        <v>1</v>
+      </c>
       <c r="H20" s="40" t="inlineStr">
         <is>
           <t>PROYECTO DE OBRA:</t>
@@ -2027,7 +2029,7 @@
       <c r="G21" s="43" t="n"/>
       <c r="H21" s="41" t="inlineStr">
         <is>
-          <t>FECHA: DD/MM/AAAA</t>
+          <t>FECHA: 2018-08-31</t>
         </is>
       </c>
       <c r="I21" s="41" t="n"/>
